--- a/modern-post-relational-db/Lab-10/time.xlsx
+++ b/modern-post-relational-db/Lab-10/time.xlsx
@@ -63,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +77,27 @@
       <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -179,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -192,6 +213,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -472,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="176" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,7 +516,7 @@
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,11 +533,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="12">
         <v>1</v>
       </c>
       <c r="C2" s="6">
@@ -521,11 +550,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1.2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="12">
         <v>57</v>
       </c>
       <c r="C3" s="6">
@@ -538,31 +567,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1.3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="18">
         <v>58</v>
       </c>
       <c r="C4" s="6">
         <v>117</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="13">
         <v>145</v>
       </c>
       <c r="E4" s="7">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1.4</v>
       </c>
       <c r="B5" s="6">
         <v>60</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="12">
         <v>124</v>
       </c>
       <c r="D5" s="11">
@@ -572,7 +601,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2.1</v>
       </c>
@@ -589,31 +618,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2.2000000000000002</v>
       </c>
       <c r="B7" s="6">
         <v>101</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="12">
         <v>126</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="19">
         <v>97</v>
       </c>
       <c r="E7" s="7">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>3.1</v>
       </c>
       <c r="B8" s="6">
         <v>6</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="18">
         <v>1</v>
       </c>
       <c r="D8" s="11">
@@ -623,24 +652,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>4.0999999999999996</v>
       </c>
       <c r="B9" s="6">
         <v>110</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="18">
         <v>105</v>
       </c>
       <c r="D9" s="11">
         <v>109</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="14">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>4.2</v>
       </c>
@@ -650,14 +679,14 @@
       <c r="C10" s="6">
         <v>102</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="13">
         <v>111</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="15">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>4.3</v>
       </c>
@@ -667,38 +696,39 @@
       <c r="C11" s="6">
         <v>153</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="19">
         <v>148</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="14">
         <v>218</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>5.0999999999999996</v>
       </c>
       <c r="B12" s="6">
         <v>9980</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="18">
         <v>26</v>
       </c>
       <c r="D12" s="11">
         <v>9819</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="14">
         <v>10007</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>6.1</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="12">
         <v>10123</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="18">
         <v>30</v>
       </c>
       <c r="D13" s="11">
@@ -708,7 +738,7 @@
         <v>9734</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>7.1</v>
       </c>
@@ -725,14 +755,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>8.1</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="12">
         <v>416</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="18">
         <v>2</v>
       </c>
       <c r="D15" s="11">
@@ -742,7 +772,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>8.1999999999999993</v>
       </c>
@@ -752,10 +782,10 @@
       <c r="C16" s="6">
         <v>547</v>
       </c>
-      <c r="D16" s="11">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="D16" s="19">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14">
         <v>563</v>
       </c>
     </row>
@@ -769,10 +799,10 @@
       <c r="C17" s="6">
         <v>262</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="13">
         <v>293</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="15">
         <v>252</v>
       </c>
     </row>
@@ -783,13 +813,13 @@
       <c r="B18" s="6">
         <v>140</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="18">
         <v>11</v>
       </c>
       <c r="D18" s="11">
         <v>13</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="16">
         <v>223</v>
       </c>
     </row>
